--- a/data/latin/texts/pamphilus/verseorder.xlsx
+++ b/data/latin/texts/pamphilus/verseorder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kraus0001/Coding/pamphilus_db/data/latin/texts/pamphilus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E6DC49-2188-F64B-94D2-19222367F98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E0EE04-FFE3-A24B-9A29-FD561114FC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="9920" windowWidth="30240" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30240" yWindow="3820" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Base</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>296a</t>
-  </si>
-  <si>
-    <t>298a</t>
   </si>
   <si>
     <t>296b</t>
@@ -227,12 +224,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C4179CD-C661-C345-8534-D4FAF136D9B4}" name="Tabelle1" displayName="Tabelle1" ref="A1:G809" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C4179CD-C661-C345-8534-D4FAF136D9B4}" name="Tabelle1" displayName="Tabelle1" ref="A1:G809" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:G809" xr:uid="{0C4179CD-C661-C345-8534-D4FAF136D9B4}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DC1C602D-3572-C04A-826D-29502EB7868F}" name="Base" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{4BCD942E-00F6-4E46-BDF2-2AC5DC6BCEB7}" name="B1" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{3E5C744C-17FD-F54E-A4B7-95B89E3B51B5}" name="P3" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{DC1C602D-3572-C04A-826D-29502EB7868F}" name="Base" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4BCD942E-00F6-4E46-BDF2-2AC5DC6BCEB7}" name="B1" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{3E5C744C-17FD-F54E-A4B7-95B89E3B51B5}" name="P3" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{FA98A55B-7A3C-6E4F-BB8F-9374AE1C9A06}" name="To"/>
     <tableColumn id="5" xr3:uid="{14A6934C-352E-7D4D-ACE5-41CFF87AE241}" name="W1"/>
     <tableColumn id="6" xr3:uid="{20CFC2DE-EAFD-0D42-85D0-8F0EEAC0783E}" name="P5"/>
@@ -508,8 +505,8 @@
   <dimension ref="A1:G809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A795" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H813" sqref="H813"/>
+      <pane ySplit="1" topLeftCell="A794" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E808" sqref="E808"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -531,10 +528,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3594,7 +3591,7 @@
         <v>151</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -3614,7 +3611,7 @@
         <v>152</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -3634,7 +3631,7 @@
         <v>153</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -3654,7 +3651,7 @@
         <v>154</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -6531,7 +6528,7 @@
         <v>297</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F301" s="1">
         <v>304</v>
@@ -6590,8 +6587,8 @@
       <c r="D304" s="1">
         <v>300</v>
       </c>
-      <c r="E304" s="1" t="s">
-        <v>6</v>
+      <c r="E304" s="1">
+        <v>299</v>
       </c>
       <c r="F304" s="1">
         <v>307</v>
@@ -6611,7 +6608,7 @@
         <v>301</v>
       </c>
       <c r="E305" s="1">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F305" s="1">
         <v>308</v>
@@ -6631,7 +6628,7 @@
         <v>302</v>
       </c>
       <c r="E306" s="1">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F306" s="1">
         <v>309</v>
@@ -6651,7 +6648,7 @@
         <v>303</v>
       </c>
       <c r="E307" s="1">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F307" s="1">
         <v>310</v>
@@ -6671,7 +6668,7 @@
         <v>304</v>
       </c>
       <c r="E308" s="1">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F308" s="1">
         <v>311</v>
@@ -6691,7 +6688,7 @@
         <v>305</v>
       </c>
       <c r="E309" s="1">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F309" s="1">
         <v>313</v>
@@ -6711,7 +6708,7 @@
         <v>306</v>
       </c>
       <c r="E310" s="1">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F310" s="1">
         <v>315</v>
@@ -6731,7 +6728,7 @@
         <v>307</v>
       </c>
       <c r="E311" s="1">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F311" s="1">
         <v>316</v>
@@ -6751,7 +6748,7 @@
         <v>308</v>
       </c>
       <c r="E312" s="1">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F312" s="1">
         <v>317</v>
@@ -6771,7 +6768,7 @@
         <v>309</v>
       </c>
       <c r="E313" s="1">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F313" s="1">
         <v>318</v>
@@ -6791,7 +6788,7 @@
         <v>310</v>
       </c>
       <c r="E314" s="1">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F314" s="1">
         <v>319</v>
@@ -6811,7 +6808,7 @@
         <v>311</v>
       </c>
       <c r="E315" s="1">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F315" s="1">
         <v>320</v>
@@ -6831,7 +6828,7 @@
         <v>312</v>
       </c>
       <c r="E316" s="1">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F316" s="1">
         <v>321</v>
@@ -6851,7 +6848,7 @@
         <v>313</v>
       </c>
       <c r="E317" s="1">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F317" s="1">
         <v>322</v>
@@ -6871,7 +6868,7 @@
         <v>314</v>
       </c>
       <c r="E318" s="1">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F318" s="1">
         <v>323</v>
@@ -6891,7 +6888,7 @@
         <v>315</v>
       </c>
       <c r="E319" s="1">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F319" s="1">
         <v>326</v>
@@ -6911,7 +6908,7 @@
         <v>316</v>
       </c>
       <c r="E320" s="1">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F320" s="1">
         <v>327</v>
@@ -6931,7 +6928,7 @@
         <v>317</v>
       </c>
       <c r="E321" s="1">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F321" s="1">
         <v>328</v>
@@ -6951,7 +6948,7 @@
         <v>318</v>
       </c>
       <c r="E322" s="1">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F322" s="1">
         <v>329</v>
@@ -6971,7 +6968,7 @@
         <v>319</v>
       </c>
       <c r="E323" s="1">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F323" s="1">
         <v>330</v>
@@ -6991,7 +6988,7 @@
         <v>320</v>
       </c>
       <c r="E324" s="1">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F324" s="1">
         <v>331</v>
@@ -7011,7 +7008,7 @@
         <v>321</v>
       </c>
       <c r="E325" s="1">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F325" s="1">
         <v>332</v>
@@ -7031,7 +7028,7 @@
         <v>322</v>
       </c>
       <c r="E326" s="1">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F326" s="1">
         <v>333</v>
@@ -7051,7 +7048,7 @@
         <v>323</v>
       </c>
       <c r="E327" s="1">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F327" s="1">
         <v>334</v>
@@ -7071,7 +7068,7 @@
         <v>326</v>
       </c>
       <c r="E328" s="1">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F328" s="1">
         <v>335</v>
@@ -7091,7 +7088,7 @@
         <v>327</v>
       </c>
       <c r="E329" s="1">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F329" s="1">
         <v>336</v>
@@ -7111,7 +7108,7 @@
         <v>353</v>
       </c>
       <c r="E330" s="1">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F330" s="1">
         <v>337</v>
@@ -7131,7 +7128,7 @@
         <v>354</v>
       </c>
       <c r="E331" s="1">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F331" s="1">
         <v>338</v>
@@ -7151,7 +7148,7 @@
         <v>355</v>
       </c>
       <c r="E332" s="1">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F332" s="1">
         <v>339</v>
@@ -7171,7 +7168,7 @@
         <v>356</v>
       </c>
       <c r="E333" s="1">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F333" s="1">
         <v>340</v>
@@ -7191,7 +7188,7 @@
         <v>357</v>
       </c>
       <c r="E334" s="1">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F334" s="1">
         <v>341</v>
@@ -7211,7 +7208,7 @@
         <v>358</v>
       </c>
       <c r="E335" s="1">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F335" s="1">
         <v>342</v>
@@ -7231,7 +7228,7 @@
         <v>359</v>
       </c>
       <c r="E336" s="1">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F336" s="1">
         <v>343</v>
@@ -7251,7 +7248,7 @@
         <v>360</v>
       </c>
       <c r="E337" s="1">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F337" s="1">
         <v>344</v>
@@ -7271,7 +7268,7 @@
         <v>361</v>
       </c>
       <c r="E338" s="1">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F338" s="1">
         <v>345</v>
@@ -7291,7 +7288,7 @@
         <v>362</v>
       </c>
       <c r="E339" s="1">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F339" s="1">
         <v>346</v>
@@ -7311,7 +7308,7 @@
         <v>363</v>
       </c>
       <c r="E340" s="1">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F340" s="1">
         <v>347</v>
@@ -7331,7 +7328,7 @@
         <v>364</v>
       </c>
       <c r="E341" s="1">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F341" s="1">
         <v>348</v>
@@ -7351,7 +7348,7 @@
         <v>365</v>
       </c>
       <c r="E342" s="1">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F342" s="1">
         <v>349</v>
@@ -7371,7 +7368,7 @@
         <v>366</v>
       </c>
       <c r="E343" s="1">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F343" s="1">
         <v>350</v>
@@ -7391,7 +7388,7 @@
         <v>367</v>
       </c>
       <c r="E344" s="1">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F344" s="1">
         <v>351</v>
@@ -7411,7 +7408,7 @@
         <v>368</v>
       </c>
       <c r="E345" s="1">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F345" s="1">
         <v>352</v>
@@ -7431,7 +7428,7 @@
         <v>369</v>
       </c>
       <c r="E346" s="1">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F346" s="1">
         <v>353</v>
@@ -7451,7 +7448,7 @@
         <v>370</v>
       </c>
       <c r="E347" s="1">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F347" s="1">
         <v>354</v>
@@ -7471,7 +7468,7 @@
         <v>371</v>
       </c>
       <c r="E348" s="1">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F348" s="1">
         <v>355</v>
@@ -7491,7 +7488,7 @@
         <v>372</v>
       </c>
       <c r="E349" s="1">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F349" s="1">
         <v>356</v>
@@ -7511,7 +7508,7 @@
         <v>373</v>
       </c>
       <c r="E350" s="1">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F350" s="1">
         <v>357</v>
@@ -7531,7 +7528,7 @@
         <v>374</v>
       </c>
       <c r="E351" s="1">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F351" s="1">
         <v>358</v>
@@ -7551,7 +7548,7 @@
         <v>375</v>
       </c>
       <c r="E352" s="1">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F352" s="1">
         <v>359</v>
@@ -7571,7 +7568,7 @@
         <v>376</v>
       </c>
       <c r="E353" s="1">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F353" s="1">
         <v>360</v>
@@ -7591,7 +7588,7 @@
         <v>377</v>
       </c>
       <c r="E354" s="1">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F354" s="1">
         <v>361</v>
@@ -7611,7 +7608,7 @@
         <v>328</v>
       </c>
       <c r="E355" s="1">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F355" s="1">
         <v>362</v>
@@ -7631,7 +7628,7 @@
         <v>329</v>
       </c>
       <c r="E356" s="1">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F356" s="1">
         <v>363</v>
@@ -7651,7 +7648,7 @@
         <v>330</v>
       </c>
       <c r="E357" s="1">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F357" s="1">
         <v>364</v>
@@ -7671,7 +7668,7 @@
         <v>331</v>
       </c>
       <c r="E358" s="1">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F358" s="1">
         <v>365</v>
@@ -7691,7 +7688,7 @@
         <v>332</v>
       </c>
       <c r="E359" s="1">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F359" s="1">
         <v>366</v>
@@ -7711,7 +7708,7 @@
         <v>333</v>
       </c>
       <c r="E360" s="1">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F360" s="1">
         <v>367</v>
@@ -7731,7 +7728,7 @@
         <v>334</v>
       </c>
       <c r="E361" s="1">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F361" s="1">
         <v>368</v>
@@ -7751,7 +7748,7 @@
         <v>335</v>
       </c>
       <c r="E362" s="1">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F362" s="1">
         <v>369</v>
@@ -7771,7 +7768,7 @@
         <v>336</v>
       </c>
       <c r="E363" s="1">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F363" s="1">
         <v>370</v>
@@ -7791,7 +7788,7 @@
         <v>337</v>
       </c>
       <c r="E364" s="1">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F364" s="1">
         <v>371</v>
@@ -7811,7 +7808,7 @@
         <v>338</v>
       </c>
       <c r="E365" s="1">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F365" s="1">
         <v>372</v>
@@ -7831,7 +7828,7 @@
         <v>339</v>
       </c>
       <c r="E366" s="1">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F366" s="1">
         <v>373</v>
@@ -7851,7 +7848,7 @@
         <v>340</v>
       </c>
       <c r="E367" s="1">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F367" s="1">
         <v>374</v>
@@ -7871,7 +7868,7 @@
         <v>341</v>
       </c>
       <c r="E368" s="1">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F368" s="1">
         <v>375</v>
@@ -7891,7 +7888,7 @@
         <v>342</v>
       </c>
       <c r="E369" s="1">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F369" s="1">
         <v>376</v>
@@ -7911,7 +7908,7 @@
         <v>343</v>
       </c>
       <c r="E370" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F370" s="1">
         <v>377</v>
@@ -7931,7 +7928,7 @@
         <v>344</v>
       </c>
       <c r="E371" s="1">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F371" s="1">
         <v>378</v>
@@ -7951,7 +7948,7 @@
         <v>345</v>
       </c>
       <c r="E372" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F372" s="1">
         <v>379</v>
@@ -7971,7 +7968,7 @@
         <v>346</v>
       </c>
       <c r="E373" s="1">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F373" s="1">
         <v>380</v>
@@ -7991,7 +7988,7 @@
         <v>347</v>
       </c>
       <c r="E374" s="1">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F374" s="1">
         <v>381</v>
@@ -8011,7 +8008,7 @@
         <v>348</v>
       </c>
       <c r="E375" s="1">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F375" s="1">
         <v>382</v>
@@ -8031,7 +8028,7 @@
         <v>349</v>
       </c>
       <c r="E376" s="1">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F376" s="1">
         <v>383</v>
@@ -8051,7 +8048,7 @@
         <v>350</v>
       </c>
       <c r="E377" s="1">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F377" s="1">
         <v>384</v>
@@ -8071,7 +8068,7 @@
         <v>351</v>
       </c>
       <c r="E378" s="1">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F378" s="1">
         <v>385</v>
@@ -8091,7 +8088,7 @@
         <v>352</v>
       </c>
       <c r="E379" s="1">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F379" s="1">
         <v>386</v>
@@ -8111,7 +8108,7 @@
         <v>378</v>
       </c>
       <c r="E380" s="1">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F380" s="1">
         <v>387</v>
@@ -8131,7 +8128,7 @@
         <v>379</v>
       </c>
       <c r="E381" s="1">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F381" s="1">
         <v>388</v>
@@ -8151,7 +8148,7 @@
         <v>380</v>
       </c>
       <c r="E382" s="1">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F382" s="1">
         <v>389</v>
@@ -8171,7 +8168,7 @@
         <v>381</v>
       </c>
       <c r="E383" s="1">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F383" s="1">
         <v>390</v>
@@ -8191,7 +8188,7 @@
         <v>382</v>
       </c>
       <c r="E384" s="1">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F384" s="1">
         <v>391</v>
@@ -8211,7 +8208,7 @@
         <v>383</v>
       </c>
       <c r="E385" s="1">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F385" s="1">
         <v>392</v>
@@ -8231,7 +8228,7 @@
         <v>384</v>
       </c>
       <c r="E386" s="1">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F386" s="1">
         <v>393</v>
@@ -8251,7 +8248,7 @@
         <v>385</v>
       </c>
       <c r="E387" s="1">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F387" s="1">
         <v>394</v>
@@ -8271,7 +8268,7 @@
         <v>386</v>
       </c>
       <c r="E388" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F388" s="1">
         <v>395</v>
@@ -8291,7 +8288,7 @@
         <v>387</v>
       </c>
       <c r="E389" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F389" s="1">
         <v>396</v>
@@ -8311,7 +8308,7 @@
         <v>388</v>
       </c>
       <c r="E390" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F390" s="1">
         <v>397</v>
@@ -8331,7 +8328,7 @@
         <v>389</v>
       </c>
       <c r="E391" s="1">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F391" s="1">
         <v>398</v>
@@ -8351,7 +8348,7 @@
         <v>390</v>
       </c>
       <c r="E392" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F392" s="1">
         <v>399</v>
@@ -8371,7 +8368,7 @@
         <v>391</v>
       </c>
       <c r="E393" s="1">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F393" s="1">
         <v>400</v>
@@ -8391,7 +8388,7 @@
         <v>392</v>
       </c>
       <c r="E394" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F394" s="1">
         <v>401</v>
@@ -8411,7 +8408,7 @@
         <v>393</v>
       </c>
       <c r="E395" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F395" s="1">
         <v>402</v>
@@ -8431,7 +8428,7 @@
         <v>394</v>
       </c>
       <c r="E396" s="1">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F396" s="1">
         <v>403</v>
@@ -8451,7 +8448,7 @@
         <v>395</v>
       </c>
       <c r="E397" s="1">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F397" s="1">
         <v>404</v>
@@ -8471,7 +8468,7 @@
         <v>396</v>
       </c>
       <c r="E398" s="1">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F398" s="1">
         <v>405</v>
@@ -8491,7 +8488,7 @@
         <v>397</v>
       </c>
       <c r="E399" s="1">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F399" s="1">
         <v>406</v>
@@ -8511,7 +8508,7 @@
         <v>398</v>
       </c>
       <c r="E400" s="1">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F400" s="1">
         <v>407</v>
@@ -8531,7 +8528,7 @@
         <v>399</v>
       </c>
       <c r="E401" s="1">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F401" s="1">
         <v>408</v>
@@ -8551,7 +8548,7 @@
         <v>400</v>
       </c>
       <c r="E402" s="1">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F402" s="1">
         <v>409</v>
@@ -8571,7 +8568,7 @@
         <v>401</v>
       </c>
       <c r="E403" s="1">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F403" s="1">
         <v>410</v>
@@ -8591,7 +8588,7 @@
         <v>402</v>
       </c>
       <c r="E404" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F404" s="1">
         <v>411</v>
@@ -8611,7 +8608,7 @@
         <v>403</v>
       </c>
       <c r="E405" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F405" s="1">
         <v>412</v>
@@ -8631,7 +8628,7 @@
         <v>404</v>
       </c>
       <c r="E406" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F406" s="1">
         <v>413</v>
@@ -8651,7 +8648,7 @@
         <v>405</v>
       </c>
       <c r="E407" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F407" s="1">
         <v>414</v>
@@ -8671,7 +8668,7 @@
         <v>406</v>
       </c>
       <c r="E408" s="1">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F408" s="1">
         <v>415</v>
@@ -8691,7 +8688,7 @@
         <v>407</v>
       </c>
       <c r="E409" s="1">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F409" s="1">
         <v>416</v>
@@ -8711,7 +8708,7 @@
         <v>408</v>
       </c>
       <c r="E410" s="1">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F410" s="1">
         <v>417</v>
@@ -8731,7 +8728,7 @@
         <v>409</v>
       </c>
       <c r="E411" s="1">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F411" s="1">
         <v>418</v>
@@ -8751,7 +8748,7 @@
         <v>410</v>
       </c>
       <c r="E412" s="1">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F412" s="1">
         <v>419</v>
@@ -8771,7 +8768,7 @@
         <v>411</v>
       </c>
       <c r="E413" s="1">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F413" s="1">
         <v>420</v>
@@ -8791,7 +8788,7 @@
         <v>412</v>
       </c>
       <c r="E414" s="1">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F414" s="1">
         <v>421</v>
@@ -8811,7 +8808,7 @@
         <v>413</v>
       </c>
       <c r="E415" s="1">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F415" s="1">
         <v>422</v>
@@ -8831,7 +8828,7 @@
         <v>414</v>
       </c>
       <c r="E416" s="1">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F416" s="1">
         <v>423</v>
@@ -8851,7 +8848,7 @@
         <v>415</v>
       </c>
       <c r="E417" s="1">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F417" s="1">
         <v>424</v>
@@ -8871,7 +8868,7 @@
         <v>416</v>
       </c>
       <c r="E418" s="1">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F418" s="1">
         <v>425</v>
@@ -8891,7 +8888,7 @@
         <v>417</v>
       </c>
       <c r="E419" s="1">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F419" s="1">
         <v>426</v>
@@ -8911,7 +8908,7 @@
         <v>418</v>
       </c>
       <c r="E420" s="1">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F420" s="1">
         <v>427</v>
@@ -8931,7 +8928,7 @@
         <v>419</v>
       </c>
       <c r="E421" s="1">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F421" s="1">
         <v>428</v>
@@ -8951,7 +8948,7 @@
         <v>420</v>
       </c>
       <c r="E422" s="1">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F422" s="1">
         <v>429</v>
@@ -8971,7 +8968,7 @@
         <v>421</v>
       </c>
       <c r="E423" s="1">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F423" s="1">
         <v>430</v>
@@ -8991,7 +8988,7 @@
         <v>422</v>
       </c>
       <c r="E424" s="1">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F424" s="1">
         <v>431</v>
@@ -9011,7 +9008,7 @@
         <v>423</v>
       </c>
       <c r="E425" s="1">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F425" s="1">
         <v>432</v>
@@ -9031,7 +9028,7 @@
         <v>424</v>
       </c>
       <c r="E426" s="1">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F426" s="1">
         <v>433</v>
@@ -9051,7 +9048,7 @@
         <v>425</v>
       </c>
       <c r="E427" s="1">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F427" s="1">
         <v>434</v>
@@ -9071,7 +9068,7 @@
         <v>426</v>
       </c>
       <c r="E428" s="1">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F428" s="1">
         <v>435</v>
@@ -9091,7 +9088,7 @@
         <v>427</v>
       </c>
       <c r="E429" s="1">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F429" s="1">
         <v>436</v>
@@ -9111,7 +9108,7 @@
         <v>428</v>
       </c>
       <c r="E430" s="1">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F430" s="1">
         <v>437</v>
@@ -9131,7 +9128,7 @@
         <v>429</v>
       </c>
       <c r="E431" s="1">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F431" s="1">
         <v>438</v>
@@ -9151,7 +9148,7 @@
         <v>430</v>
       </c>
       <c r="E432" s="1">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F432" s="1">
         <v>439</v>
@@ -9171,7 +9168,7 @@
         <v>431</v>
       </c>
       <c r="E433" s="1">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F433" s="1">
         <v>440</v>
@@ -9191,7 +9188,7 @@
         <v>432</v>
       </c>
       <c r="E434" s="1">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F434" s="1">
         <v>441</v>
@@ -9211,7 +9208,7 @@
         <v>433</v>
       </c>
       <c r="E435" s="1">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F435" s="1">
         <v>442</v>
@@ -9231,7 +9228,7 @@
         <v>434</v>
       </c>
       <c r="E436" s="1">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F436" s="1">
         <v>443</v>
@@ -9251,7 +9248,7 @@
         <v>435</v>
       </c>
       <c r="E437" s="1">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F437" s="1">
         <v>444</v>
@@ -9271,7 +9268,7 @@
         <v>436</v>
       </c>
       <c r="E438" s="1">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F438" s="1">
         <v>445</v>
@@ -9291,7 +9288,7 @@
         <v>437</v>
       </c>
       <c r="E439" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F439" s="1">
         <v>446</v>
@@ -9311,7 +9308,7 @@
         <v>438</v>
       </c>
       <c r="E440" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F440" s="1">
         <v>447</v>
@@ -9331,7 +9328,7 @@
         <v>439</v>
       </c>
       <c r="E441" s="1">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F441" s="1">
         <v>448</v>
@@ -9351,7 +9348,7 @@
         <v>440</v>
       </c>
       <c r="E442" s="1">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F442" s="1">
         <v>449</v>
@@ -9371,7 +9368,7 @@
         <v>441</v>
       </c>
       <c r="E443" s="1">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F443" s="1">
         <v>450</v>
@@ -9391,7 +9388,7 @@
         <v>442</v>
       </c>
       <c r="E444" s="1">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F444" s="1">
         <v>451</v>
@@ -9411,7 +9408,7 @@
         <v>443</v>
       </c>
       <c r="E445" s="1">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F445" s="1">
         <v>452</v>
@@ -9431,7 +9428,7 @@
         <v>444</v>
       </c>
       <c r="E446" s="1">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F446" s="1">
         <v>453</v>
@@ -9451,7 +9448,7 @@
         <v>445</v>
       </c>
       <c r="E447" s="1">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F447" s="1">
         <v>454</v>
@@ -9471,7 +9468,7 @@
         <v>446</v>
       </c>
       <c r="E448" s="1">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F448" s="1">
         <v>455</v>
@@ -9491,7 +9488,7 @@
         <v>447</v>
       </c>
       <c r="E449" s="1">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F449" s="1">
         <v>456</v>
@@ -9511,7 +9508,7 @@
         <v>448</v>
       </c>
       <c r="E450" s="1">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F450" s="1">
         <v>457</v>
@@ -9531,7 +9528,7 @@
         <v>449</v>
       </c>
       <c r="E451" s="1">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F451" s="1">
         <v>458</v>
@@ -9551,7 +9548,7 @@
         <v>450</v>
       </c>
       <c r="E452" s="1">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F452" s="1">
         <v>459</v>
@@ -9571,7 +9568,7 @@
         <v>451</v>
       </c>
       <c r="E453" s="1">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F453" s="1">
         <v>460</v>
@@ -9591,7 +9588,7 @@
         <v>452</v>
       </c>
       <c r="E454" s="1">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F454" s="1">
         <v>461</v>
@@ -9611,7 +9608,7 @@
         <v>453</v>
       </c>
       <c r="E455" s="1">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F455" s="1">
         <v>462</v>
@@ -9631,7 +9628,7 @@
         <v>454</v>
       </c>
       <c r="E456" s="1">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F456" s="1">
         <v>463</v>
@@ -9651,7 +9648,7 @@
         <v>455</v>
       </c>
       <c r="E457" s="1">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F457" s="1">
         <v>464</v>
@@ -9671,7 +9668,7 @@
         <v>456</v>
       </c>
       <c r="E458" s="1">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F458" s="1">
         <v>465</v>
@@ -9691,7 +9688,7 @@
         <v>457</v>
       </c>
       <c r="E459" s="1">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F459" s="1">
         <v>466</v>
@@ -9711,7 +9708,7 @@
         <v>458</v>
       </c>
       <c r="E460" s="1">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F460" s="1">
         <v>467</v>
@@ -9731,7 +9728,7 @@
         <v>459</v>
       </c>
       <c r="E461" s="1">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F461" s="1">
         <v>468</v>
@@ -9751,7 +9748,7 @@
         <v>460</v>
       </c>
       <c r="E462" s="1">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F462" s="1">
         <v>469</v>
@@ -9771,7 +9768,7 @@
         <v>461</v>
       </c>
       <c r="E463" s="1">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F463" s="1">
         <v>470</v>
@@ -9791,7 +9788,7 @@
         <v>462</v>
       </c>
       <c r="E464" s="1">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F464" s="1">
         <v>471</v>
@@ -9811,7 +9808,7 @@
         <v>463</v>
       </c>
       <c r="E465" s="1">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F465" s="1">
         <v>472</v>
@@ -9831,7 +9828,7 @@
         <v>464</v>
       </c>
       <c r="E466" s="1">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F466" s="1">
         <v>473</v>
@@ -9851,7 +9848,7 @@
         <v>465</v>
       </c>
       <c r="E467" s="1">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F467" s="1">
         <v>474</v>
@@ -9871,7 +9868,7 @@
         <v>466</v>
       </c>
       <c r="E468" s="1">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F468" s="1">
         <v>475</v>
@@ -9891,7 +9888,7 @@
         <v>467</v>
       </c>
       <c r="E469" s="1">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F469" s="1">
         <v>476</v>
@@ -9911,7 +9908,7 @@
         <v>468</v>
       </c>
       <c r="E470" s="1">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F470" s="1">
         <v>477</v>
@@ -9931,7 +9928,7 @@
         <v>469</v>
       </c>
       <c r="E471" s="1">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F471" s="1">
         <v>478</v>
@@ -9951,7 +9948,7 @@
         <v>470</v>
       </c>
       <c r="E472" s="1">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F472" s="1">
         <v>479</v>
@@ -9971,7 +9968,7 @@
         <v>471</v>
       </c>
       <c r="E473" s="1">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F473" s="1">
         <v>480</v>
@@ -9991,7 +9988,7 @@
         <v>472</v>
       </c>
       <c r="E474" s="1">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F474" s="1">
         <v>481</v>
@@ -10011,7 +10008,7 @@
         <v>473</v>
       </c>
       <c r="E475" s="1">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F475" s="1">
         <v>482</v>
@@ -10031,7 +10028,7 @@
         <v>474</v>
       </c>
       <c r="E476" s="1">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F476" s="1">
         <v>483</v>
@@ -10051,7 +10048,7 @@
         <v>475</v>
       </c>
       <c r="E477" s="1">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F477" s="1">
         <v>484</v>
@@ -10071,7 +10068,7 @@
         <v>476</v>
       </c>
       <c r="E478" s="1">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F478" s="1">
         <v>485</v>
@@ -10091,7 +10088,7 @@
         <v>477</v>
       </c>
       <c r="E479" s="1">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F479" s="1">
         <v>486</v>
@@ -10111,7 +10108,7 @@
         <v>478</v>
       </c>
       <c r="E480" s="1">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F480" s="1">
         <v>487</v>
@@ -10131,7 +10128,7 @@
         <v>479</v>
       </c>
       <c r="E481" s="1">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F481" s="1">
         <v>488</v>
@@ -10151,7 +10148,7 @@
         <v>480</v>
       </c>
       <c r="E482" s="1">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F482" s="1">
         <v>489</v>
@@ -10171,7 +10168,7 @@
         <v>481</v>
       </c>
       <c r="E483" s="1">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F483" s="1">
         <v>490</v>
@@ -10191,7 +10188,7 @@
         <v>482</v>
       </c>
       <c r="E484" s="1">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F484" s="1">
         <v>491</v>
@@ -10211,7 +10208,7 @@
         <v>483</v>
       </c>
       <c r="E485" s="1">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F485" s="1">
         <v>492</v>
@@ -10231,7 +10228,7 @@
         <v>484</v>
       </c>
       <c r="E486" s="1">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F486" s="1">
         <v>493</v>
@@ -10251,7 +10248,7 @@
         <v>485</v>
       </c>
       <c r="E487" s="1">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F487" s="1">
         <v>494</v>
@@ -10271,7 +10268,7 @@
         <v>486</v>
       </c>
       <c r="E488" s="1">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F488" s="1">
         <v>495</v>
@@ -10291,7 +10288,7 @@
         <v>487</v>
       </c>
       <c r="E489" s="1">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F489" s="1">
         <v>496</v>
@@ -10311,7 +10308,7 @@
         <v>488</v>
       </c>
       <c r="E490" s="1">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F490" s="1">
         <v>497</v>
@@ -10331,7 +10328,7 @@
         <v>489</v>
       </c>
       <c r="E491" s="1">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F491" s="1">
         <v>498</v>
@@ -10351,7 +10348,7 @@
         <v>490</v>
       </c>
       <c r="E492" s="1">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F492" s="1">
         <v>499</v>
@@ -10371,7 +10368,7 @@
         <v>491</v>
       </c>
       <c r="E493" s="1">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F493" s="1">
         <v>500</v>
@@ -10391,7 +10388,7 @@
         <v>492</v>
       </c>
       <c r="E494" s="1">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F494" s="1">
         <v>501</v>
@@ -10411,7 +10408,7 @@
         <v>493</v>
       </c>
       <c r="E495" s="1">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F495" s="1">
         <v>502</v>
@@ -10431,7 +10428,7 @@
         <v>494</v>
       </c>
       <c r="E496" s="1">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F496" s="1">
         <v>503</v>
@@ -10451,7 +10448,7 @@
         <v>495</v>
       </c>
       <c r="E497" s="1">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F497" s="1">
         <v>504</v>
@@ -10471,7 +10468,7 @@
         <v>496</v>
       </c>
       <c r="E498" s="1">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F498" s="1">
         <v>505</v>
@@ -10491,7 +10488,7 @@
         <v>497</v>
       </c>
       <c r="E499" s="1">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F499" s="1">
         <v>506</v>
@@ -10511,7 +10508,7 @@
         <v>498</v>
       </c>
       <c r="E500" s="1">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F500" s="1">
         <v>507</v>
@@ -10531,7 +10528,7 @@
         <v>499</v>
       </c>
       <c r="E501" s="1">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F501" s="1">
         <v>508</v>
@@ -10551,7 +10548,7 @@
         <v>500</v>
       </c>
       <c r="E502" s="1">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F502" s="1">
         <v>509</v>
@@ -10571,7 +10568,7 @@
         <v>501</v>
       </c>
       <c r="E503" s="1">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F503" s="1">
         <v>510</v>
@@ -10591,7 +10588,7 @@
         <v>502</v>
       </c>
       <c r="E504" s="1">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F504" s="1">
         <v>511</v>
@@ -10611,7 +10608,7 @@
         <v>503</v>
       </c>
       <c r="E505" s="1">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F505" s="1">
         <v>512</v>
@@ -10631,7 +10628,7 @@
         <v>504</v>
       </c>
       <c r="E506" s="1">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F506" s="1">
         <v>513</v>
@@ -10651,7 +10648,7 @@
         <v>505</v>
       </c>
       <c r="E507" s="1">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F507" s="1">
         <v>514</v>
@@ -10671,7 +10668,7 @@
         <v>506</v>
       </c>
       <c r="E508" s="1">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F508" s="1">
         <v>515</v>
@@ -10691,7 +10688,7 @@
         <v>507</v>
       </c>
       <c r="E509" s="1">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F509" s="1">
         <v>516</v>
@@ -10711,7 +10708,7 @@
         <v>508</v>
       </c>
       <c r="E510" s="1">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F510" s="1">
         <v>517</v>
@@ -10731,7 +10728,7 @@
         <v>509</v>
       </c>
       <c r="E511" s="1">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F511" s="1">
         <v>518</v>
@@ -10751,7 +10748,7 @@
         <v>510</v>
       </c>
       <c r="E512" s="1">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F512" s="1">
         <v>519</v>
@@ -10771,7 +10768,7 @@
         <v>511</v>
       </c>
       <c r="E513" s="1">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F513" s="1">
         <v>520</v>
@@ -10791,7 +10788,7 @@
         <v>512</v>
       </c>
       <c r="E514" s="1">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F514" s="1">
         <v>521</v>
@@ -10811,7 +10808,7 @@
         <v>513</v>
       </c>
       <c r="E515" s="1">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F515" s="1">
         <v>522</v>
@@ -10831,7 +10828,7 @@
         <v>514</v>
       </c>
       <c r="E516" s="1">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F516" s="1">
         <v>523</v>
@@ -10851,7 +10848,7 @@
         <v>515</v>
       </c>
       <c r="E517" s="1">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F517" s="1">
         <v>524</v>
@@ -10871,7 +10868,7 @@
         <v>516</v>
       </c>
       <c r="E518" s="1">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F518" s="1">
         <v>525</v>
@@ -10891,7 +10888,7 @@
         <v>517</v>
       </c>
       <c r="E519" s="1">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F519" s="1">
         <v>526</v>
@@ -10911,7 +10908,7 @@
         <v>518</v>
       </c>
       <c r="E520" s="1">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F520" s="1">
         <v>527</v>
@@ -10931,7 +10928,7 @@
         <v>519</v>
       </c>
       <c r="E521" s="1">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F521" s="1">
         <v>528</v>
@@ -10951,7 +10948,7 @@
         <v>520</v>
       </c>
       <c r="E522" s="1">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F522" s="1">
         <v>529</v>
@@ -10971,7 +10968,7 @@
         <v>521</v>
       </c>
       <c r="E523" s="1">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F523" s="1">
         <v>530</v>
@@ -10991,7 +10988,7 @@
         <v>522</v>
       </c>
       <c r="E524" s="1">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F524" s="1">
         <v>531</v>
@@ -11011,7 +11008,7 @@
         <v>523</v>
       </c>
       <c r="E525" s="1">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F525" s="1">
         <v>532</v>
@@ -11031,7 +11028,7 @@
         <v>524</v>
       </c>
       <c r="E526" s="1">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F526" s="1">
         <v>533</v>
@@ -11051,7 +11048,7 @@
         <v>525</v>
       </c>
       <c r="E527" s="1">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F527" s="1">
         <v>538</v>
@@ -11071,7 +11068,7 @@
         <v>526</v>
       </c>
       <c r="E528" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F528" s="1">
         <v>539</v>
@@ -11091,7 +11088,7 @@
         <v>527</v>
       </c>
       <c r="E529" s="1">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F529" s="1">
         <v>540</v>
@@ -11111,7 +11108,7 @@
         <v>528</v>
       </c>
       <c r="E530" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F530" s="1">
         <v>541</v>
@@ -11131,7 +11128,7 @@
         <v>529</v>
       </c>
       <c r="E531" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F531" s="1">
         <v>542</v>
@@ -11151,7 +11148,7 @@
         <v>530</v>
       </c>
       <c r="E532" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F532" s="1">
         <v>543</v>
@@ -11171,7 +11168,7 @@
         <v>531</v>
       </c>
       <c r="E533" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F533" s="1">
         <v>544</v>
@@ -11191,7 +11188,7 @@
         <v>532</v>
       </c>
       <c r="E534" s="1">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F534" s="1">
         <v>545</v>
@@ -11211,7 +11208,7 @@
         <v>533</v>
       </c>
       <c r="E535" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F535" s="1">
         <v>546</v>
@@ -11231,7 +11228,7 @@
         <v>534</v>
       </c>
       <c r="E536" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F536" s="1">
         <v>547</v>
@@ -11251,7 +11248,7 @@
         <v>535</v>
       </c>
       <c r="E537" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F537" s="1">
         <v>548</v>
@@ -11271,7 +11268,7 @@
         <v>536</v>
       </c>
       <c r="E538" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F538" s="1">
         <v>549</v>
@@ -11291,7 +11288,7 @@
         <v>537</v>
       </c>
       <c r="E539" s="1">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F539" s="1">
         <v>550</v>
@@ -11311,7 +11308,7 @@
         <v>538</v>
       </c>
       <c r="E540" s="1">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F540" s="1">
         <v>551</v>
@@ -11331,7 +11328,7 @@
         <v>539</v>
       </c>
       <c r="E541" s="1">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F541" s="1">
         <v>552</v>
@@ -11351,7 +11348,7 @@
         <v>540</v>
       </c>
       <c r="E542" s="1">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F542" s="1">
         <v>553</v>
@@ -11371,7 +11368,7 @@
         <v>541</v>
       </c>
       <c r="E543" s="1">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F543" s="1">
         <v>554</v>
@@ -11391,7 +11388,7 @@
         <v>542</v>
       </c>
       <c r="E544" s="1">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F544" s="1">
         <v>555</v>
@@ -11411,7 +11408,7 @@
         <v>543</v>
       </c>
       <c r="E545" s="1">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F545" s="1">
         <v>556</v>
@@ -11431,7 +11428,7 @@
         <v>544</v>
       </c>
       <c r="E546" s="1">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F546" s="1">
         <v>557</v>
@@ -11451,7 +11448,7 @@
         <v>545</v>
       </c>
       <c r="E547" s="1">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F547" s="1">
         <v>558</v>
@@ -11471,7 +11468,7 @@
         <v>546</v>
       </c>
       <c r="E548" s="1">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F548" s="1">
         <v>559</v>
@@ -11491,7 +11488,7 @@
         <v>547</v>
       </c>
       <c r="E549" s="1">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F549" s="1">
         <v>560</v>
@@ -11511,7 +11508,7 @@
         <v>548</v>
       </c>
       <c r="E550" s="1">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F550" s="1">
         <v>561</v>
@@ -11531,7 +11528,7 @@
         <v>549</v>
       </c>
       <c r="E551" s="1">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F551" s="1">
         <v>562</v>
@@ -11551,7 +11548,7 @@
         <v>550</v>
       </c>
       <c r="E552" s="1">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F552" s="1">
         <v>563</v>
@@ -11571,7 +11568,7 @@
         <v>551</v>
       </c>
       <c r="E553" s="1">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F553" s="1">
         <v>564</v>
@@ -11591,7 +11588,7 @@
         <v>552</v>
       </c>
       <c r="E554" s="1">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F554" s="1">
         <v>565</v>
@@ -11611,7 +11608,7 @@
         <v>553</v>
       </c>
       <c r="E555" s="1">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F555" s="1">
         <v>566</v>
@@ -11631,7 +11628,7 @@
         <v>554</v>
       </c>
       <c r="E556" s="1">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F556" s="1">
         <v>567</v>
@@ -11651,7 +11648,7 @@
         <v>555</v>
       </c>
       <c r="E557" s="1">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F557" s="1">
         <v>568</v>
@@ -11671,7 +11668,7 @@
         <v>556</v>
       </c>
       <c r="E558" s="1">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F558" s="1">
         <v>569</v>
@@ -11691,7 +11688,7 @@
         <v>557</v>
       </c>
       <c r="E559" s="1">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F559" s="1">
         <v>570</v>
@@ -11711,7 +11708,7 @@
         <v>558</v>
       </c>
       <c r="E560" s="1">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F560" s="1">
         <v>571</v>
@@ -11730,8 +11727,8 @@
       <c r="D561" s="1">
         <v>559</v>
       </c>
-      <c r="E561" s="1">
-        <v>557</v>
+      <c r="E561">
+        <v>559</v>
       </c>
       <c r="F561" s="1">
         <v>572</v>
@@ -11750,8 +11747,8 @@
       <c r="D562" s="1">
         <v>560</v>
       </c>
-      <c r="E562">
-        <v>559</v>
+      <c r="E562" s="1">
+        <v>558</v>
       </c>
       <c r="F562" s="1">
         <v>573</v>
@@ -11771,7 +11768,7 @@
         <v>561</v>
       </c>
       <c r="E563" s="1">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F563" s="1">
         <v>574</v>
@@ -11791,7 +11788,7 @@
         <v>562</v>
       </c>
       <c r="E564" s="1">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F564" s="1">
         <v>575</v>
@@ -11811,7 +11808,7 @@
         <v>563</v>
       </c>
       <c r="E565" s="1">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F565" s="1">
         <v>576</v>
@@ -11831,7 +11828,7 @@
         <v>564</v>
       </c>
       <c r="E566" s="1">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F566" s="1">
         <v>577</v>
@@ -11851,7 +11848,7 @@
         <v>565</v>
       </c>
       <c r="E567" s="1">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F567" s="1">
         <v>578</v>
@@ -11871,7 +11868,7 @@
         <v>566</v>
       </c>
       <c r="E568" s="1">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F568" s="1">
         <v>579</v>
@@ -11891,7 +11888,7 @@
         <v>567</v>
       </c>
       <c r="E569" s="1">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F569" s="1">
         <v>580</v>
@@ -11911,7 +11908,7 @@
         <v>568</v>
       </c>
       <c r="E570" s="1">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F570" s="1">
         <v>581</v>
@@ -11931,7 +11928,7 @@
         <v>569</v>
       </c>
       <c r="E571" s="1">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F571" s="1">
         <v>582</v>
@@ -11951,7 +11948,7 @@
         <v>570</v>
       </c>
       <c r="E572" s="1">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F572" s="1">
         <v>583</v>
@@ -11971,7 +11968,7 @@
         <v>571</v>
       </c>
       <c r="E573" s="1">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F573" s="1">
         <v>584</v>
@@ -11985,13 +11982,13 @@
         <v>575</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D574" s="1">
         <v>572</v>
       </c>
       <c r="E574" s="1">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F574" s="1">
         <v>585</v>
@@ -12005,13 +12002,13 @@
         <v>576</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D575" s="1">
         <v>573</v>
       </c>
       <c r="E575" s="1">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F575" s="1">
         <v>586</v>
@@ -12031,7 +12028,7 @@
         <v>574</v>
       </c>
       <c r="E576" s="1">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F576" s="1">
         <v>587</v>
@@ -12051,7 +12048,7 @@
         <v>575</v>
       </c>
       <c r="E577" s="1">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F577" s="1">
         <v>588</v>
@@ -12071,7 +12068,7 @@
         <v>576</v>
       </c>
       <c r="E578" s="1">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F578" s="1">
         <v>589</v>
@@ -12091,7 +12088,7 @@
         <v>577</v>
       </c>
       <c r="E579" s="1">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F579" s="1">
         <v>590</v>
@@ -12111,7 +12108,7 @@
         <v>578</v>
       </c>
       <c r="E580" s="1">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F580" s="1">
         <v>591</v>
@@ -12131,7 +12128,7 @@
         <v>579</v>
       </c>
       <c r="E581" s="1">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F581" s="1">
         <v>592</v>
@@ -12151,7 +12148,7 @@
         <v>580</v>
       </c>
       <c r="E582" s="1">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F582" s="1">
         <v>593</v>
@@ -12171,7 +12168,7 @@
         <v>581</v>
       </c>
       <c r="E583" s="1">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F583" s="1">
         <v>594</v>
@@ -12191,7 +12188,7 @@
         <v>582</v>
       </c>
       <c r="E584" s="1">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F584" s="1">
         <v>595</v>
@@ -12211,7 +12208,7 @@
         <v>583</v>
       </c>
       <c r="E585" s="1">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F585" s="1">
         <v>596</v>
@@ -12231,7 +12228,7 @@
         <v>584</v>
       </c>
       <c r="E586" s="1">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F586" s="1">
         <v>597</v>
@@ -12251,7 +12248,7 @@
         <v>585</v>
       </c>
       <c r="E587" s="1">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F587" s="1">
         <v>598</v>
@@ -12271,7 +12268,7 @@
         <v>586</v>
       </c>
       <c r="E588" s="1">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F588" s="1">
         <v>599</v>
@@ -12291,7 +12288,7 @@
         <v>587</v>
       </c>
       <c r="E589" s="1">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F589" s="1">
         <v>600</v>
@@ -12311,7 +12308,7 @@
         <v>588</v>
       </c>
       <c r="E590" s="1">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F590" s="1">
         <v>601</v>
@@ -12331,7 +12328,7 @@
         <v>589</v>
       </c>
       <c r="E591" s="1">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F591" s="1">
         <v>602</v>
@@ -12351,7 +12348,7 @@
         <v>590</v>
       </c>
       <c r="E592" s="1">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F592" s="1">
         <v>603</v>
@@ -12371,7 +12368,7 @@
         <v>591</v>
       </c>
       <c r="E593" s="1">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F593" s="1">
         <v>604</v>
@@ -12391,7 +12388,7 @@
         <v>592</v>
       </c>
       <c r="E594" s="1">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F594" s="1">
         <v>605</v>
@@ -12411,7 +12408,7 @@
         <v>593</v>
       </c>
       <c r="E595" s="1">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F595" s="1">
         <v>606</v>
@@ -12431,7 +12428,7 @@
         <v>594</v>
       </c>
       <c r="E596" s="1">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F596" s="1">
         <v>607</v>
@@ -12451,7 +12448,7 @@
         <v>595</v>
       </c>
       <c r="E597" s="1">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F597" s="1">
         <v>608</v>
@@ -12471,7 +12468,7 @@
         <v>596</v>
       </c>
       <c r="E598" s="1">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F598" s="1">
         <v>609</v>
@@ -12491,7 +12488,7 @@
         <v>597</v>
       </c>
       <c r="E599" s="1">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F599" s="1">
         <v>610</v>
@@ -12511,7 +12508,7 @@
         <v>598</v>
       </c>
       <c r="E600" s="1">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F600" s="1">
         <v>611</v>
@@ -12531,7 +12528,7 @@
         <v>599</v>
       </c>
       <c r="E601" s="1">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F601" s="1">
         <v>612</v>
@@ -12551,7 +12548,7 @@
         <v>600</v>
       </c>
       <c r="E602" s="1">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F602" s="1">
         <v>613</v>
@@ -12571,7 +12568,7 @@
         <v>601</v>
       </c>
       <c r="E603" s="1">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F603" s="1">
         <v>614</v>
@@ -12591,7 +12588,7 @@
         <v>602</v>
       </c>
       <c r="E604" s="1">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F604" s="1">
         <v>615</v>
@@ -12611,7 +12608,7 @@
         <v>603</v>
       </c>
       <c r="E605" s="1">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F605" s="1">
         <v>616</v>
@@ -12631,7 +12628,7 @@
         <v>604</v>
       </c>
       <c r="E606" s="1">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F606" s="1">
         <v>617</v>
@@ -12651,7 +12648,7 @@
         <v>605</v>
       </c>
       <c r="E607" s="1">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F607" s="1">
         <v>618</v>
@@ -12671,7 +12668,7 @@
         <v>606</v>
       </c>
       <c r="E608" s="1">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F608" s="1">
         <v>619</v>
@@ -12691,7 +12688,7 @@
         <v>607</v>
       </c>
       <c r="E609" s="1">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F609" s="1">
         <v>620</v>
@@ -12711,7 +12708,7 @@
         <v>608</v>
       </c>
       <c r="E610" s="1">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F610" s="1">
         <v>621</v>
@@ -12731,7 +12728,7 @@
         <v>609</v>
       </c>
       <c r="E611" s="1">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F611" s="1">
         <v>622</v>
@@ -12751,7 +12748,7 @@
         <v>610</v>
       </c>
       <c r="E612" s="1">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F612" s="1">
         <v>623</v>
@@ -12771,7 +12768,7 @@
         <v>611</v>
       </c>
       <c r="E613" s="1">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F613" s="1">
         <v>624</v>
@@ -12791,7 +12788,7 @@
         <v>612</v>
       </c>
       <c r="E614" s="1">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F614" s="1">
         <v>625</v>
@@ -12811,7 +12808,7 @@
         <v>613</v>
       </c>
       <c r="E615" s="1">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F615" s="1">
         <v>626</v>
@@ -12831,7 +12828,7 @@
         <v>614</v>
       </c>
       <c r="E616" s="1">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F616" s="1">
         <v>627</v>
@@ -12851,7 +12848,7 @@
         <v>615</v>
       </c>
       <c r="E617" s="1">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F617" s="1">
         <v>628</v>
@@ -12871,7 +12868,7 @@
         <v>616</v>
       </c>
       <c r="E618" s="1">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F618" s="1">
         <v>629</v>
@@ -12891,7 +12888,7 @@
         <v>617</v>
       </c>
       <c r="E619" s="1">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F619" s="1">
         <v>630</v>
@@ -12911,7 +12908,7 @@
         <v>618</v>
       </c>
       <c r="E620" s="1">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F620" s="1">
         <v>631</v>
@@ -12931,7 +12928,7 @@
         <v>619</v>
       </c>
       <c r="E621" s="1">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F621" s="1">
         <v>632</v>
@@ -12951,7 +12948,7 @@
         <v>620</v>
       </c>
       <c r="E622" s="1">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F622" s="1">
         <v>633</v>
@@ -12971,7 +12968,7 @@
         <v>621</v>
       </c>
       <c r="E623" s="1">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F623" s="1">
         <v>634</v>
@@ -12991,7 +12988,7 @@
         <v>622</v>
       </c>
       <c r="E624" s="1">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F624" s="1">
         <v>635</v>
@@ -13011,7 +13008,7 @@
         <v>623</v>
       </c>
       <c r="E625" s="1">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F625" s="1">
         <v>636</v>
@@ -13031,7 +13028,7 @@
         <v>624</v>
       </c>
       <c r="E626" s="1">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F626" s="1">
         <v>637</v>
@@ -13051,7 +13048,7 @@
         <v>625</v>
       </c>
       <c r="E627" s="1">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F627" s="1">
         <v>638</v>
@@ -13071,7 +13068,7 @@
         <v>626</v>
       </c>
       <c r="E628" s="1">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F628" s="1">
         <v>641</v>
@@ -13091,7 +13088,7 @@
         <v>627</v>
       </c>
       <c r="E629" s="1">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F629" s="1">
         <v>642</v>
@@ -13111,7 +13108,7 @@
         <v>628</v>
       </c>
       <c r="E630" s="1">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F630" s="1">
         <v>643</v>
@@ -13131,7 +13128,7 @@
         <v>629</v>
       </c>
       <c r="E631" s="1">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F631" s="1">
         <v>644</v>
@@ -13150,8 +13147,8 @@
       <c r="D632" s="1">
         <v>630</v>
       </c>
-      <c r="E632" s="1">
-        <v>627</v>
+      <c r="E632" t="s">
+        <v>9</v>
       </c>
       <c r="F632" s="1">
         <v>645</v>
@@ -13170,8 +13167,8 @@
       <c r="D633" s="1">
         <v>631</v>
       </c>
-      <c r="E633" t="s">
-        <v>10</v>
+      <c r="E633" s="1">
+        <v>628</v>
       </c>
       <c r="F633" s="1">
         <v>646</v>
@@ -13191,7 +13188,7 @@
         <v>632</v>
       </c>
       <c r="E634" s="1">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F634" s="1">
         <v>647</v>
@@ -13211,7 +13208,7 @@
         <v>633</v>
       </c>
       <c r="E635" s="1">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F635" s="1">
         <v>648</v>
@@ -13231,7 +13228,7 @@
         <v>634</v>
       </c>
       <c r="E636" s="1">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F636" s="1">
         <v>649</v>
@@ -13251,7 +13248,7 @@
         <v>635</v>
       </c>
       <c r="E637" s="1">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F637" s="1">
         <v>650</v>
@@ -13271,7 +13268,7 @@
         <v>636</v>
       </c>
       <c r="E638" s="1">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F638" s="1">
         <v>651</v>
@@ -13291,7 +13288,7 @@
         <v>637</v>
       </c>
       <c r="E639" s="1">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F639" s="1">
         <v>652</v>
@@ -13311,7 +13308,7 @@
         <v>638</v>
       </c>
       <c r="E640" s="1">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F640" s="1">
         <v>653</v>
@@ -13331,7 +13328,7 @@
         <v>639</v>
       </c>
       <c r="E641" s="1">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F641" s="1">
         <v>654</v>
@@ -13351,7 +13348,7 @@
         <v>640</v>
       </c>
       <c r="E642" s="1">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F642" s="1">
         <v>655</v>
@@ -13371,7 +13368,7 @@
         <v>641</v>
       </c>
       <c r="E643" s="1">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F643" s="1">
         <v>656</v>
@@ -13391,7 +13388,7 @@
         <v>642</v>
       </c>
       <c r="E644" s="1">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F644" s="1">
         <v>657</v>
@@ -13411,7 +13408,7 @@
         <v>643</v>
       </c>
       <c r="E645" s="1">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F645" s="1">
         <v>658</v>
@@ -13431,7 +13428,7 @@
         <v>644</v>
       </c>
       <c r="E646" s="1">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F646" s="1">
         <v>659</v>
@@ -13451,7 +13448,7 @@
         <v>645</v>
       </c>
       <c r="E647" s="1">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F647" s="1">
         <v>660</v>
@@ -13471,7 +13468,7 @@
         <v>646</v>
       </c>
       <c r="E648" s="1">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F648" s="1">
         <v>661</v>
@@ -13491,7 +13488,7 @@
         <v>647</v>
       </c>
       <c r="E649" s="1">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F649" s="1">
         <v>662</v>
@@ -13511,7 +13508,7 @@
         <v>648</v>
       </c>
       <c r="E650" s="1">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F650" s="1">
         <v>663</v>
@@ -13531,7 +13528,7 @@
         <v>649</v>
       </c>
       <c r="E651" s="1">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F651" s="1">
         <v>664</v>
@@ -13551,7 +13548,7 @@
         <v>650</v>
       </c>
       <c r="E652" s="1">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F652" s="1">
         <v>665</v>
@@ -13571,7 +13568,7 @@
         <v>651</v>
       </c>
       <c r="E653" s="1">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F653" s="1">
         <v>666</v>
@@ -13591,7 +13588,7 @@
         <v>652</v>
       </c>
       <c r="E654" s="1">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F654" s="1">
         <v>667</v>
@@ -13611,7 +13608,7 @@
         <v>653</v>
       </c>
       <c r="E655" s="1">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F655" s="1">
         <v>668</v>
@@ -13631,7 +13628,7 @@
         <v>654</v>
       </c>
       <c r="E656" s="1">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F656" s="1">
         <v>669</v>
@@ -13651,7 +13648,7 @@
         <v>655</v>
       </c>
       <c r="E657" s="1">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F657" s="1">
         <v>670</v>
@@ -13671,7 +13668,7 @@
         <v>656</v>
       </c>
       <c r="E658" s="1">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F658" s="1">
         <v>671</v>
@@ -13691,7 +13688,7 @@
         <v>657</v>
       </c>
       <c r="E659" s="1">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F659" s="1">
         <v>672</v>
@@ -13711,7 +13708,7 @@
         <v>658</v>
       </c>
       <c r="E660" s="1">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F660" s="1">
         <v>673</v>
@@ -13731,7 +13728,7 @@
         <v>659</v>
       </c>
       <c r="E661" s="1">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F661" s="1">
         <v>674</v>
@@ -13751,7 +13748,7 @@
         <v>660</v>
       </c>
       <c r="E662" s="1">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F662" s="1">
         <v>675</v>
@@ -13771,7 +13768,7 @@
         <v>661</v>
       </c>
       <c r="E663" s="1">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F663" s="1">
         <v>676</v>
@@ -13791,7 +13788,7 @@
         <v>662</v>
       </c>
       <c r="E664" s="1">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F664" s="1">
         <v>677</v>
@@ -13811,7 +13808,7 @@
         <v>663</v>
       </c>
       <c r="E665" s="1">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F665" s="1">
         <v>678</v>
@@ -13831,7 +13828,7 @@
         <v>664</v>
       </c>
       <c r="E666" s="1">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F666" s="1">
         <v>679</v>
@@ -13851,7 +13848,7 @@
         <v>665</v>
       </c>
       <c r="E667" s="1">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F667" s="1">
         <v>680</v>
@@ -13871,7 +13868,7 @@
         <v>666</v>
       </c>
       <c r="E668" s="1">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F668" s="1">
         <v>681</v>
@@ -13891,7 +13888,7 @@
         <v>667</v>
       </c>
       <c r="E669" s="1">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F669" s="1">
         <v>682</v>
@@ -13911,7 +13908,7 @@
         <v>668</v>
       </c>
       <c r="E670" s="1">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F670" s="1">
         <v>683</v>
@@ -13931,7 +13928,7 @@
         <v>669</v>
       </c>
       <c r="E671" s="1">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F671" s="1">
         <v>684</v>
@@ -13951,7 +13948,7 @@
         <v>670</v>
       </c>
       <c r="E672" s="1">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F672" s="1">
         <v>687</v>
@@ -13971,7 +13968,7 @@
         <v>671</v>
       </c>
       <c r="E673" s="1">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F673" s="1">
         <v>688</v>
@@ -13991,7 +13988,7 @@
         <v>672</v>
       </c>
       <c r="E674" s="1">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F674" s="1">
         <v>689</v>
@@ -14011,7 +14008,7 @@
         <v>673</v>
       </c>
       <c r="E675" s="1">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F675" s="1">
         <v>690</v>
@@ -14031,7 +14028,7 @@
         <v>674</v>
       </c>
       <c r="E676" s="1">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F676" s="1">
         <v>691</v>
@@ -14051,7 +14048,7 @@
         <v>675</v>
       </c>
       <c r="E677" s="1">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F677" s="1">
         <v>692</v>
@@ -14071,7 +14068,7 @@
         <v>676</v>
       </c>
       <c r="E678" s="1">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F678" s="1">
         <v>693</v>
@@ -14091,7 +14088,7 @@
         <v>677</v>
       </c>
       <c r="E679" s="1">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F679" s="1">
         <v>694</v>
@@ -14111,7 +14108,7 @@
         <v>678</v>
       </c>
       <c r="E680" s="1">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F680" s="1">
         <v>695</v>
@@ -14131,7 +14128,7 @@
         <v>679</v>
       </c>
       <c r="E681" s="1">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F681" s="1">
         <v>696</v>
@@ -14151,7 +14148,7 @@
         <v>680</v>
       </c>
       <c r="E682" s="1">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F682" s="1">
         <v>697</v>
@@ -14171,7 +14168,7 @@
         <v>681</v>
       </c>
       <c r="E683" s="1">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F683" s="1">
         <v>698</v>
@@ -14191,7 +14188,7 @@
         <v>682</v>
       </c>
       <c r="E684" s="1">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F684" s="1">
         <v>699</v>
@@ -14210,8 +14207,8 @@
       <c r="D685" s="1">
         <v>683</v>
       </c>
-      <c r="E685" s="1">
-        <v>680</v>
+      <c r="E685" t="s">
+        <v>10</v>
       </c>
       <c r="F685" s="1">
         <v>700</v>
@@ -14231,7 +14228,7 @@
         <v>684</v>
       </c>
       <c r="E686" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F686" s="1">
         <v>701</v>
@@ -14690,8 +14687,8 @@
       <c r="D709" s="1">
         <v>707</v>
       </c>
-      <c r="E709" t="s">
-        <v>40</v>
+      <c r="E709">
+        <v>681</v>
       </c>
       <c r="F709" s="1">
         <v>724</v>
@@ -14711,7 +14708,7 @@
         <v>708</v>
       </c>
       <c r="E710">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F710" s="1">
         <v>725</v>
@@ -14731,7 +14728,7 @@
         <v>709</v>
       </c>
       <c r="E711">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F711" s="1">
         <v>726</v>
@@ -14751,7 +14748,7 @@
         <v>710</v>
       </c>
       <c r="E712">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F712" s="1">
         <v>727</v>
@@ -14771,7 +14768,7 @@
         <v>711</v>
       </c>
       <c r="E713">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F713" s="1">
         <v>728</v>
@@ -14791,7 +14788,7 @@
         <v>712</v>
       </c>
       <c r="E714">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F714" s="1">
         <v>729</v>
@@ -14811,7 +14808,7 @@
         <v>713</v>
       </c>
       <c r="E715">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F715" s="1">
         <v>730</v>
@@ -14831,7 +14828,7 @@
         <v>714</v>
       </c>
       <c r="E716">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F716" s="1">
         <v>731</v>
@@ -14851,7 +14848,7 @@
         <v>715</v>
       </c>
       <c r="E717">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F717" s="1">
         <v>732</v>
@@ -14871,7 +14868,7 @@
         <v>716</v>
       </c>
       <c r="E718">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F718" s="1">
         <v>733</v>
@@ -14891,7 +14888,7 @@
         <v>717</v>
       </c>
       <c r="E719">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F719" s="1">
         <v>734</v>
@@ -14911,7 +14908,7 @@
         <v>718</v>
       </c>
       <c r="E720">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F720" s="1">
         <v>735</v>
@@ -14931,7 +14928,7 @@
         <v>719</v>
       </c>
       <c r="E721">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F721" s="1">
         <v>736</v>
@@ -14951,7 +14948,7 @@
         <v>720</v>
       </c>
       <c r="E722">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F722" s="1">
         <v>737</v>
@@ -14971,7 +14968,7 @@
         <v>721</v>
       </c>
       <c r="E723">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F723" s="1">
         <v>738</v>
@@ -14991,7 +14988,7 @@
         <v>722</v>
       </c>
       <c r="E724">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F724" s="1">
         <v>739</v>
@@ -15011,7 +15008,7 @@
         <v>723</v>
       </c>
       <c r="E725">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F725" s="1">
         <v>740</v>
@@ -15031,7 +15028,7 @@
         <v>724</v>
       </c>
       <c r="E726">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F726" s="1">
         <v>741</v>
@@ -15051,7 +15048,7 @@
         <v>725</v>
       </c>
       <c r="E727">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F727" s="1">
         <v>742</v>
@@ -15071,7 +15068,7 @@
         <v>726</v>
       </c>
       <c r="E728">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F728" s="1">
         <v>743</v>
@@ -15091,7 +15088,7 @@
         <v>727</v>
       </c>
       <c r="E729">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F729" s="1">
         <v>744</v>
@@ -15111,7 +15108,7 @@
         <v>728</v>
       </c>
       <c r="E730">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F730" s="1">
         <v>745</v>
@@ -15131,7 +15128,7 @@
         <v>729</v>
       </c>
       <c r="E731">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F731" s="1">
         <v>746</v>
@@ -15151,7 +15148,7 @@
         <v>730</v>
       </c>
       <c r="E732">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F732" s="1">
         <v>747</v>
@@ -15171,7 +15168,7 @@
         <v>731</v>
       </c>
       <c r="E733">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F733" s="1">
         <v>748</v>
@@ -15191,7 +15188,7 @@
         <v>732</v>
       </c>
       <c r="E734">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F734" s="1">
         <v>749</v>
@@ -15211,7 +15208,7 @@
         <v>733</v>
       </c>
       <c r="E735">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F735" s="1">
         <v>750</v>
@@ -15231,7 +15228,7 @@
         <v>734</v>
       </c>
       <c r="E736">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F736" s="1">
         <v>751</v>
@@ -15251,7 +15248,7 @@
         <v>735</v>
       </c>
       <c r="E737">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F737" s="1">
         <v>752</v>
@@ -15271,7 +15268,7 @@
         <v>736</v>
       </c>
       <c r="E738">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F738" s="1">
         <v>753</v>
@@ -15291,7 +15288,7 @@
         <v>737</v>
       </c>
       <c r="E739">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F739" s="1">
         <v>754</v>
@@ -15311,7 +15308,7 @@
         <v>738</v>
       </c>
       <c r="E740">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F740" s="1">
         <v>755</v>
@@ -15331,7 +15328,7 @@
         <v>739</v>
       </c>
       <c r="E741">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F741" s="1">
         <v>756</v>
@@ -15351,7 +15348,7 @@
         <v>740</v>
       </c>
       <c r="E742">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F742" s="1">
         <v>757</v>
@@ -15371,7 +15368,7 @@
         <v>741</v>
       </c>
       <c r="E743">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F743" s="1">
         <v>758</v>
@@ -15391,7 +15388,7 @@
         <v>742</v>
       </c>
       <c r="E744">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F744" s="1">
         <v>759</v>
@@ -15411,7 +15408,7 @@
         <v>743</v>
       </c>
       <c r="E745">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F745" s="1">
         <v>760</v>
@@ -15431,7 +15428,7 @@
         <v>744</v>
       </c>
       <c r="E746">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F746" s="1">
         <v>761</v>
@@ -15451,7 +15448,7 @@
         <v>745</v>
       </c>
       <c r="E747">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F747" s="1">
         <v>762</v>
@@ -15471,7 +15468,7 @@
         <v>746</v>
       </c>
       <c r="E748">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F748" s="1">
         <v>763</v>
@@ -15491,7 +15488,7 @@
         <v>747</v>
       </c>
       <c r="E749">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F749" s="1">
         <v>764</v>
@@ -15511,7 +15508,7 @@
         <v>748</v>
       </c>
       <c r="E750">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F750" s="1">
         <v>765</v>
@@ -15531,7 +15528,7 @@
         <v>749</v>
       </c>
       <c r="E751">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F751" s="1">
         <v>766</v>
@@ -15551,7 +15548,7 @@
         <v>750</v>
       </c>
       <c r="E752">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F752" s="1">
         <v>767</v>
@@ -15571,7 +15568,7 @@
         <v>751</v>
       </c>
       <c r="E753">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F753" s="1">
         <v>768</v>
@@ -15591,7 +15588,7 @@
         <v>752</v>
       </c>
       <c r="E754">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F754" s="1">
         <v>769</v>
@@ -15611,7 +15608,7 @@
         <v>753</v>
       </c>
       <c r="E755">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F755" s="1">
         <v>770</v>
@@ -15631,7 +15628,7 @@
         <v>754</v>
       </c>
       <c r="E756">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F756" s="1">
         <v>771</v>
@@ -15651,7 +15648,7 @@
         <v>755</v>
       </c>
       <c r="E757">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F757" s="1">
         <v>772</v>
@@ -15671,7 +15668,7 @@
         <v>756</v>
       </c>
       <c r="E758">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F758" s="1">
         <v>773</v>
@@ -15691,7 +15688,7 @@
         <v>757</v>
       </c>
       <c r="E759">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F759" s="1">
         <v>774</v>
@@ -15711,7 +15708,7 @@
         <v>758</v>
       </c>
       <c r="E760">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F760" s="1">
         <v>775</v>
@@ -15731,7 +15728,7 @@
         <v>759</v>
       </c>
       <c r="E761">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F761" s="1">
         <v>776</v>
@@ -15751,7 +15748,7 @@
         <v>760</v>
       </c>
       <c r="E762">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F762" s="1">
         <v>777</v>
@@ -15771,7 +15768,7 @@
         <v>761</v>
       </c>
       <c r="E763">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F763" s="1">
         <v>778</v>
@@ -15791,7 +15788,7 @@
         <v>762</v>
       </c>
       <c r="E764">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F764" s="1">
         <v>779</v>
@@ -15811,7 +15808,7 @@
         <v>763</v>
       </c>
       <c r="E765">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F765" s="1">
         <v>780</v>
@@ -15831,7 +15828,7 @@
         <v>764</v>
       </c>
       <c r="E766">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.2">
@@ -15848,7 +15845,7 @@
         <v>765</v>
       </c>
       <c r="E767">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.2">
@@ -15865,7 +15862,7 @@
         <v>766</v>
       </c>
       <c r="E768">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.2">
@@ -15882,7 +15879,7 @@
         <v>767</v>
       </c>
       <c r="E769">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.2">
@@ -15899,7 +15896,7 @@
         <v>768</v>
       </c>
       <c r="E770">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.2">
@@ -15916,7 +15913,7 @@
         <v>769</v>
       </c>
       <c r="E771">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.2">
@@ -15933,7 +15930,7 @@
         <v>770</v>
       </c>
       <c r="E772">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.2">
@@ -15950,7 +15947,7 @@
         <v>771</v>
       </c>
       <c r="E773">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.2">
@@ -15967,7 +15964,7 @@
         <v>772</v>
       </c>
       <c r="E774">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.2">
@@ -15984,7 +15981,7 @@
         <v>773</v>
       </c>
       <c r="E775">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.2">
@@ -16001,7 +15998,7 @@
         <v>774</v>
       </c>
       <c r="E776">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.2">
@@ -16018,7 +16015,7 @@
         <v>775</v>
       </c>
       <c r="E777">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.2">
@@ -16035,7 +16032,7 @@
         <v>776</v>
       </c>
       <c r="E778">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.2">
@@ -16050,7 +16047,7 @@
         <v>777</v>
       </c>
       <c r="E779">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.2">
@@ -16061,7 +16058,7 @@
         <v>778</v>
       </c>
       <c r="E780">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.2">
@@ -16072,7 +16069,7 @@
         <v>779</v>
       </c>
       <c r="E781">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.2">
@@ -16085,7 +16082,7 @@
         <v>780</v>
       </c>
       <c r="E782">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.2">
@@ -16095,7 +16092,7 @@
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
       <c r="E783">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.2">
@@ -16105,7 +16102,7 @@
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
       <c r="E784">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.2">
@@ -16115,7 +16112,7 @@
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
       <c r="E785">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.2">
@@ -16125,7 +16122,7 @@
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
       <c r="E786">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.2">
@@ -16135,7 +16132,7 @@
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
       <c r="E787">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.2">
@@ -16145,7 +16142,7 @@
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
       <c r="E788">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.2">
@@ -16155,7 +16152,7 @@
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
       <c r="E789">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.2">
@@ -16165,7 +16162,7 @@
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
       <c r="E790">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.2">
@@ -16175,7 +16172,7 @@
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
       <c r="E791">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.2">
@@ -16185,7 +16182,7 @@
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
       <c r="E792">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.2">
@@ -16195,7 +16192,7 @@
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
       <c r="E793">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.2">
@@ -16205,7 +16202,7 @@
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
       <c r="E794">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.2">
@@ -16215,7 +16212,7 @@
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
       <c r="E795">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.2">
@@ -16225,7 +16222,7 @@
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
       <c r="E796">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.2">
@@ -16235,7 +16232,7 @@
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
       <c r="E797">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.2">
@@ -16245,7 +16242,7 @@
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
       <c r="E798">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.2">
@@ -16255,7 +16252,7 @@
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
       <c r="E799">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.2">
@@ -16265,7 +16262,7 @@
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
       <c r="E800">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.2">
@@ -16275,7 +16272,7 @@
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
       <c r="E801">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.2">
@@ -16285,7 +16282,7 @@
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
       <c r="E802">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.2">
@@ -16295,7 +16292,7 @@
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
       <c r="E803">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.2">
@@ -16305,7 +16302,7 @@
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
       <c r="E804">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.2">
@@ -16315,7 +16312,7 @@
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
       <c r="E805">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.2">
@@ -16325,7 +16322,7 @@
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
       <c r="E806">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.2">
@@ -16335,7 +16332,7 @@
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
       <c r="E807">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.2">
@@ -16345,7 +16342,7 @@
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
       <c r="E808">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.2">
@@ -16354,9 +16351,6 @@
       </c>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
-      <c r="E809">
-        <v>780</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
